--- a/cheeseboard_pipeline/RecList.xlsx
+++ b/cheeseboard_pipeline/RecList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel_barron/Documents/Research/ALAB/Code/cheeseboard_pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel_barron/Documents/Research/ALAB/Code/alab_code/cheeseboard_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8327F9-98DD-3F40-A478-08B96133AC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA28C5-6E77-1244-B4F3-2CD4BB0B039A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{1D4157FB-C63A-C04C-BD42-75A53DAE2D6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Session</t>
   </si>
@@ -53,106 +53,28 @@
     <t>07222025_A</t>
   </si>
   <si>
-    <t>07312025_A</t>
-  </si>
-  <si>
     <t>07222025_SessionA_Score.csv</t>
   </si>
   <si>
-    <t>07312025_SessionA_Score.csv</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
-    <t>08042025_A</t>
-  </si>
-  <si>
-    <t>08042025_SessionA_Score.csv</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Block</t>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>GG01</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG01/07222025_A</t>
+  </si>
+  <si>
+    <t>2025-07-22_GG01_SLP_SessionA.csv</t>
   </si>
   <si>
     <t>Recall</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>GG01</t>
-  </si>
-  <si>
-    <t>GG07</t>
-  </si>
-  <si>
-    <t>07222025_B</t>
-  </si>
-  <si>
-    <t>07312025_B</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG01/07222025_A</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG01/07222025_B</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG07/07222025_B</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG07/07222025_A</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG01/08042025_A</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG07/07312025_A</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG07/07312025_B</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG07/08042025_A</t>
-  </si>
-  <si>
-    <t>07222025_SessionB_Score.csv</t>
-  </si>
-  <si>
-    <t>07312025_SessionB_Score.csv</t>
-  </si>
-  <si>
-    <t>2025-07-22_GG01_SLP_SessionA.csv</t>
-  </si>
-  <si>
-    <t>2025-07-31_GG01_SLP_SessionA.csv</t>
-  </si>
-  <si>
-    <t>2025-08-04_GG01_SLP_SessionA.csv</t>
-  </si>
-  <si>
-    <t>2025-07-22_GG07_SLP_SessionA.csv</t>
-  </si>
-  <si>
-    <t>2025-07-31_GG07_SLP_SessionA.csv</t>
-  </si>
-  <si>
-    <t>2025-08-04_GG07_SLP_SessionA.csv</t>
-  </si>
-  <si>
-    <t>2025-07-22_GG01_SLP_SessionB.csv</t>
-  </si>
-  <si>
-    <t>2025-07-31_GG01_SLP_SessionB.csv</t>
-  </si>
-  <si>
-    <t>2025-07-22_GG07_SLP_SessionB.csv</t>
-  </si>
-  <si>
-    <t>2025-07-31_GG07_SLP_SessionB.csv</t>
   </si>
 </sst>
 </file>
@@ -537,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F47240F-30DB-1142-B204-C828ED027777}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="216" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,10 +474,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -564,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -581,227 +503,49 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cheeseboard_pipeline/RecList.xlsx
+++ b/cheeseboard_pipeline/RecList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel_barron/Documents/Research/ALAB/Code/alab_code/cheeseboard_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA28C5-6E77-1244-B4F3-2CD4BB0B039A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F354CB28-5A0F-684B-99EF-1C391E7FF500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{1D4157FB-C63A-C04C-BD42-75A53DAE2D6D}"/>
+    <workbookView xWindow="-60160" yWindow="-1200" windowWidth="28040" windowHeight="17440" xr2:uid="{1D4157FB-C63A-C04C-BD42-75A53DAE2D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Session</t>
   </si>
@@ -53,9 +53,6 @@
     <t>07222025_A</t>
   </si>
   <si>
-    <t>07222025_SessionA_Score.csv</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
@@ -65,16 +62,25 @@
     <t>Day</t>
   </si>
   <si>
-    <t>GG01</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_40trial_10day/GG01/07222025_A</t>
-  </si>
-  <si>
-    <t>2025-07-22_GG01_SLP_SessionA.csv</t>
-  </si>
-  <si>
-    <t>Recall</t>
+    <t>GG08</t>
+  </si>
+  <si>
+    <t>GG02</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_50trial_10day/GG02/07222025_A</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_50trial_10day/GG08/07222025_A</t>
+  </si>
+  <si>
+    <t>v2_SLP.csv</t>
+  </si>
+  <si>
+    <t>boris_1.csv</t>
+  </si>
+  <si>
+    <t>Trial</t>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,16 +474,16 @@
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="64.83203125" customWidth="1"/>
+    <col min="5" max="5" width="67.33203125" customWidth="1"/>
     <col min="6" max="7" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -486,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -500,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -512,14 +518,34 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>

--- a/cheeseboard_pipeline/RecList.xlsx
+++ b/cheeseboard_pipeline/RecList.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel_barron/Documents/Research/ALAB/Code/alab_code/cheeseboard_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F354CB28-5A0F-684B-99EF-1C391E7FF500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10411CF-0788-4249-9164-ADC8E3761FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60160" yWindow="-1200" windowWidth="28040" windowHeight="17440" xr2:uid="{1D4157FB-C63A-C04C-BD42-75A53DAE2D6D}"/>
+    <workbookView xWindow="740" yWindow="2020" windowWidth="28040" windowHeight="17440" xr2:uid="{1D4157FB-C63A-C04C-BD42-75A53DAE2D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Session</t>
   </si>
@@ -62,32 +62,32 @@
     <t>Day</t>
   </si>
   <si>
-    <t>GG08</t>
-  </si>
-  <si>
-    <t>GG02</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_50trial_10day/GG02/07222025_A</t>
-  </si>
-  <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/CCH_50trial_10day/GG08/07222025_A</t>
-  </si>
-  <si>
-    <t>v2_SLP.csv</t>
-  </si>
-  <si>
     <t>boris_1.csv</t>
   </si>
   <si>
-    <t>Trial</t>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>v1_SLP.csv</t>
+  </si>
+  <si>
+    <t>v4_SLP.csv</t>
+  </si>
+  <si>
+    <t>GG01</t>
+  </si>
+  <si>
+    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/experiments/CCH_40trial_10day/GG01/sessions/07222025_A</t>
+  </si>
+  <si>
+    <t>Ctx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +98,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,117 +469,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F47240F-30DB-1142-B204-C828ED027777}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="67.33203125" customWidth="1"/>
-    <col min="6" max="7" width="40.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="67.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cheeseboard_pipeline/RecList.xlsx
+++ b/cheeseboard_pipeline/RecList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel_barron/Documents/Research/ALAB/Code/alab_code/cheeseboard_pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel_barron/Documents/Research/ALAB/Code/alab_code/cheeseboard_pipeline2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10411CF-0788-4249-9164-ADC8E3761FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419E9F63-9705-9140-BAE0-61517BC0F2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="2020" windowWidth="28040" windowHeight="17440" xr2:uid="{1D4157FB-C63A-C04C-BD42-75A53DAE2D6D}"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="29940" windowHeight="18580" xr2:uid="{1D4157FB-C63A-C04C-BD42-75A53DAE2D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Session</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Rat</t>
   </si>
   <si>
-    <t>07222025_A</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
@@ -62,25 +59,25 @@
     <t>Day</t>
   </si>
   <si>
-    <t>boris_1.csv</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>v1_SLP.csv</t>
-  </si>
-  <si>
-    <t>v4_SLP.csv</t>
+    <t>Center_x</t>
+  </si>
+  <si>
+    <t>Center_y</t>
   </si>
   <si>
     <t>GG01</t>
   </si>
   <si>
-    <t>/Volumes/ASA_LAB/Data/Julia/ATNRSC/experiments/CCH_40trial_10day/GG01/sessions/07222025_A</t>
-  </si>
-  <si>
-    <t>Ctx</t>
+    <t>/Volumes/ASA_Lab/Data/Julia/ATNRSC/experiments/CH_3day/GG01/Experiment2/sessions</t>
+  </si>
+  <si>
+    <t>07192025_A</t>
+  </si>
+  <si>
+    <t>GG01_07192025_A_SLP.csv</t>
+  </si>
+  <si>
+    <t>GG01_07192025_A_boris1.csv</t>
   </si>
 </sst>
 </file>
@@ -96,16 +93,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -129,12 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,117 +462,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F47240F-30DB-1142-B204-C828ED027777}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="67.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="77.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="H2" s="1">
+        <v>767</v>
+      </c>
+      <c r="I2" s="1">
+        <v>544</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>